--- a/data/trans_camb/CoTrAQ_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.820569909366481</v>
+        <v>2.919612549512554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.949247234510697</v>
+        <v>8.611549917796719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.017305979999049</v>
+        <v>8.327657537731911</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.18319815219402</v>
+        <v>18.07603814208793</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.97441309824168</v>
+        <v>24.72010999420615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.35432778875905</v>
+        <v>19.47057526096566</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1088455478661562</v>
+        <v>0.1095462816625313</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3315414994557694</v>
+        <v>0.3373806749208798</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3205130649782341</v>
+        <v>0.3489289073352022</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.083582371496724</v>
+        <v>0.9985848854768794</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.538023006313237</v>
+        <v>1.575366168565359</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.05312772596647</v>
+        <v>1.046940507699179</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.85520411503976</v>
+        <v>7.175096119992544</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.42081016920915</v>
+        <v>2.445450023924045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.189385217499552</v>
+        <v>7.181543884007469</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.9701010679982</v>
+        <v>18.72143823278846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.28194408899935</v>
+        <v>17.8719914785278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.69151310597269</v>
+        <v>16.64154651621474</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4301338905412267</v>
+        <v>0.4363104469098096</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07716899911439173</v>
+        <v>0.09221148121854204</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3864123719149625</v>
+        <v>0.3666148413140836</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.783492631937777</v>
+        <v>1.642515271458933</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.0739774165748</v>
+        <v>1.034819927084274</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.1738473728607</v>
+        <v>1.146577777400278</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.870425759764418</v>
+        <v>2.566167167953512</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.888355344397473</v>
+        <v>4.369969820018071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.429738052284368</v>
+        <v>4.683890794731995</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.66872621171895</v>
+        <v>12.30043827738652</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.08758261431369</v>
+        <v>17.01763591307009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.20912912056322</v>
+        <v>12.25399259162553</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1983173657716155</v>
+        <v>0.1945021084978243</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2132851645541803</v>
+        <v>0.2532941415774789</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.329543685741896</v>
+        <v>0.3338498283019438</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.391086038394218</v>
+        <v>1.415753275200174</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.689570424033958</v>
+        <v>1.634142288873116</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.203042678966305</v>
+        <v>1.190195633171147</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.243339393801051</v>
+        <v>7.319120858709614</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2711813272016786</v>
+        <v>-0.2415306000268847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.204461482640449</v>
+        <v>6.065681589676074</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.47358821368745</v>
+        <v>19.39827107413548</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.84601489887372</v>
+        <v>16.42682134660062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.86392146305072</v>
+        <v>15.82883353875797</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6265645558570124</v>
+        <v>0.60620689899473</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02815388357596263</v>
+        <v>-0.03999143736124456</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5034503864144785</v>
+        <v>0.4816437974004907</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.16396050634104</v>
+        <v>3.159593664633637</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.933371539934818</v>
+        <v>1.922904520813361</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.065879713576126</v>
+        <v>2.018322636855739</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.732414103436266</v>
+        <v>7.81971064600866</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.520175830967127</v>
+        <v>8.051125860113128</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.105971376937941</v>
+        <v>9.088786967618919</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.98775093848176</v>
+        <v>13.83848805450768</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.29612324240332</v>
+        <v>15.64659184049912</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.85491834294472</v>
+        <v>13.8001658796099</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5387294634246422</v>
+        <v>0.5258039904104163</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3909418628866017</v>
+        <v>0.4305428859780637</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.564358862367122</v>
+        <v>0.5602100005200837</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.207208985036797</v>
+        <v>1.194810326577374</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.02126560150295</v>
+        <v>1.031004277022654</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.015214449347064</v>
+        <v>1.01301515332571</v>
       </c>
     </row>
     <row r="34">
